--- a/assets/excels/test.xlsx
+++ b/assets/excels/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tunacaglargumus/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/celero/assets/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>ep value</t>
   </si>
@@ -42,6 +42,12 @@
   </si>
   <si>
     <t>test3</t>
+  </si>
+  <si>
+    <t>ad soyad</t>
+  </si>
+  <si>
+    <t>tuna çağlar gümüş</t>
   </si>
 </sst>
 </file>
@@ -356,10 +362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -396,6 +402,14 @@
         <v>20</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
